--- a/data/lending-hours.xlsx
+++ b/data/lending-hours.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IanMcLean\McLean Capital Dropbox\Ian McLean\_Website + data + articles\___Real CPI website\_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{70B9E1B1-DB45-4472-A952-39E8B5DFD3BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0093B689-E486-433A-9448-EA1F6315D178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -48,6 +48,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="#,##0.000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -85,7 +88,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -655,7 +658,7 @@
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
-        <v>-99.896533011757612</v>
+        <v>3.4669882423876919</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -795,11 +798,11 @@
         <v>44712</v>
       </c>
       <c r="B31" s="3">
-        <v>3317</v>
+        <v>3.3170000000000002</v>
       </c>
       <c r="C31">
         <f t="shared" si="0"/>
-        <v>97487.525742865546</v>
+        <v>-2.4124742571344449</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">

--- a/data/lending-hours.xlsx
+++ b/data/lending-hours.xlsx
@@ -458,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C52"/>
+  <dimension ref="A1:C53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,23 +489,25 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>2024-12-01</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="C2">
+        <f>(B2/B14-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>2024-11-01</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B3" t="n">
         <v>3.489</v>
-      </c>
-      <c r="C2">
-        <f>(B2/B14-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>45596</v>
-      </c>
-      <c r="B3" s="2" t="n">
-        <v>3.462</v>
       </c>
       <c r="C3">
         <f>(B3/B15-1)*100</f>
@@ -514,10 +516,10 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45565</v>
+        <v>45596</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>3.485</v>
+        <v>3.462</v>
       </c>
       <c r="C4">
         <f>(B4/B16-1)*100</f>
@@ -526,10 +528,10 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45535</v>
+        <v>45565</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>3.586</v>
+        <v>3.485</v>
       </c>
       <c r="C5">
         <f>(B5/B17-1)*100</f>
@@ -538,10 +540,10 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45504</v>
+        <v>45535</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>3.565</v>
+        <v>3.586</v>
       </c>
       <c r="C6">
         <f>(B6/B18-1)*100</f>
@@ -550,10 +552,10 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45473</v>
+        <v>45504</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>3.613</v>
+        <v>3.565</v>
       </c>
       <c r="C7">
         <f>(B7/B19-1)*100</f>
@@ -562,7 +564,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45443</v>
+        <v>45473</v>
       </c>
       <c r="B8" s="2" t="n">
         <v>3.613</v>
@@ -574,10 +576,10 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45412</v>
+        <v>45443</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>3.593</v>
+        <v>3.613</v>
       </c>
       <c r="C9">
         <f>(B9/B21-1)*100</f>
@@ -586,10 +588,10 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45382</v>
+        <v>45412</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>3.621</v>
+        <v>3.593</v>
       </c>
       <c r="C10">
         <f>(B10/B22-1)*100</f>
@@ -598,10 +600,10 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45351</v>
+        <v>45382</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>3.528</v>
+        <v>3.621</v>
       </c>
       <c r="C11">
         <f>(B11/B23-1)*100</f>
@@ -610,10 +612,10 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45322</v>
+        <v>45351</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>3.536</v>
+        <v>3.528</v>
       </c>
       <c r="C12">
         <f>(B12/B24-1)*100</f>
@@ -622,10 +624,10 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45291</v>
+        <v>45322</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>3.504</v>
+        <v>3.536</v>
       </c>
       <c r="C13">
         <f>(B13/B25-1)*100</f>
@@ -634,10 +636,10 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45260</v>
+        <v>45291</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>3.451</v>
+        <v>3.504</v>
       </c>
       <c r="C14">
         <f>(B14/B26-1)*100</f>
@@ -646,10 +648,10 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45230</v>
+        <v>45260</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>3.461</v>
+        <v>3.451</v>
       </c>
       <c r="C15">
         <f>(B15/B27-1)*100</f>
@@ -658,10 +660,10 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45199</v>
+        <v>45230</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>3.446</v>
+        <v>3.461</v>
       </c>
       <c r="C16">
         <f>(B16/B28-1)*100</f>
@@ -670,10 +672,10 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45169</v>
+        <v>45199</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>3.432</v>
+        <v>3.446</v>
       </c>
       <c r="C17">
         <f>(B17/B29-1)*100</f>
@@ -682,10 +684,10 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>45138</v>
+        <v>45169</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>3.482</v>
+        <v>3.432</v>
       </c>
       <c r="C18">
         <f>(B18/B30-1)*100</f>
@@ -694,10 +696,10 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>45107</v>
+        <v>45138</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>3.452</v>
+        <v>3.482</v>
       </c>
       <c r="C19">
         <f>(B19/B31-1)*100</f>
@@ -706,10 +708,10 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>45077</v>
+        <v>45107</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>3.432</v>
+        <v>3.452</v>
       </c>
       <c r="C20">
         <f>(B20/B32-1)*100</f>
@@ -718,10 +720,10 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>45046</v>
+        <v>45077</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>3.395</v>
+        <v>3.432</v>
       </c>
       <c r="C21">
         <f>(B21/B33-1)*100</f>
@@ -730,10 +732,10 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>45016</v>
+        <v>45046</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>3.384</v>
+        <v>3.395</v>
       </c>
       <c r="C22">
         <f>(B22/B34-1)*100</f>
@@ -742,10 +744,10 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>44985</v>
+        <v>45016</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>3.374</v>
+        <v>3.384</v>
       </c>
       <c r="C23">
         <f>(B23/B35-1)*100</f>
@@ -754,10 +756,10 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>44957</v>
+        <v>44985</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>3.376</v>
+        <v>3.374</v>
       </c>
       <c r="C24">
         <f>(B24/B36-1)*100</f>
@@ -766,10 +768,10 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>44926</v>
+        <v>44957</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>3.413</v>
+        <v>3.376</v>
       </c>
       <c r="C25">
         <f>(B25/B37-1)*100</f>
@@ -778,10 +780,10 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>44895</v>
+        <v>44926</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>3.442</v>
+        <v>3.413</v>
       </c>
       <c r="C26">
         <f>(B26/B38-1)*100</f>
@@ -790,10 +792,10 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>44865</v>
+        <v>44895</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>3.384</v>
+        <v>3.442</v>
       </c>
       <c r="C27">
         <f>(B27/B39-1)*100</f>
@@ -802,10 +804,10 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>44834</v>
+        <v>44865</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>3.396</v>
+        <v>3.384</v>
       </c>
       <c r="C28">
         <f>(B28/B40-1)*100</f>
@@ -814,10 +816,10 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>44804</v>
+        <v>44834</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>3.365</v>
+        <v>3.396</v>
       </c>
       <c r="C29">
         <f>(B29/B41-1)*100</f>
@@ -826,10 +828,10 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>44773</v>
+        <v>44804</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>3.427</v>
+        <v>3.365</v>
       </c>
       <c r="C30">
         <f>(B30/B42-1)*100</f>
@@ -838,10 +840,10 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>44742</v>
+        <v>44773</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>3.312</v>
+        <v>3.427</v>
       </c>
       <c r="C31">
         <f>(B31/B43-1)*100</f>
@@ -850,10 +852,10 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>44712</v>
-      </c>
-      <c r="B32" s="4" t="n">
-        <v>3.317</v>
+        <v>44742</v>
+      </c>
+      <c r="B32" s="2" t="n">
+        <v>3.312</v>
       </c>
       <c r="C32">
         <f>(B32/B44-1)*100</f>
@@ -862,10 +864,10 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>44681</v>
-      </c>
-      <c r="B33" s="2" t="n">
-        <v>3.421</v>
+        <v>44712</v>
+      </c>
+      <c r="B33" s="4" t="n">
+        <v>3.317</v>
       </c>
       <c r="C33">
         <f>(B33/B45-1)*100</f>
@@ -874,10 +876,10 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>44651</v>
+        <v>44681</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>3.371</v>
+        <v>3.421</v>
       </c>
       <c r="C34">
         <f>(B34/B46-1)*100</f>
@@ -886,10 +888,10 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>44620</v>
+        <v>44651</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>3.394</v>
+        <v>3.371</v>
       </c>
       <c r="C35">
         <f>(B35/B47-1)*100</f>
@@ -898,10 +900,10 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>44592</v>
+        <v>44620</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>3.388</v>
+        <v>3.394</v>
       </c>
       <c r="C36">
         <f>(B36/B48-1)*100</f>
@@ -910,10 +912,10 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>44561</v>
+        <v>44592</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>3.379</v>
+        <v>3.388</v>
       </c>
       <c r="C37">
         <f>(B37/B49-1)*100</f>
@@ -922,10 +924,10 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>44530</v>
+        <v>44561</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>3.506</v>
+        <v>3.379</v>
       </c>
       <c r="C38">
         <f>(B38/B50-1)*100</f>
@@ -934,10 +936,10 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>44500</v>
+        <v>44530</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>3.424</v>
+        <v>3.506</v>
       </c>
       <c r="C39">
         <f>(B39/B51-1)*100</f>
@@ -946,10 +948,10 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>44469</v>
+        <v>44500</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>3.387</v>
+        <v>3.424</v>
       </c>
       <c r="C40">
         <f>(B40/B52-1)*100</f>
@@ -958,10 +960,10 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>44439</v>
+        <v>44469</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>3.335</v>
+        <v>3.387</v>
       </c>
       <c r="C41">
         <f>(B41/B53-1)*100</f>
@@ -970,10 +972,10 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>44408</v>
+        <v>44439</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>3.345</v>
+        <v>3.335</v>
       </c>
       <c r="C42">
         <f>(B42/B54-1)*100</f>
@@ -982,10 +984,10 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>44377</v>
+        <v>44408</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>3.387</v>
+        <v>3.345</v>
       </c>
       <c r="C43">
         <f>(B43/B55-1)*100</f>
@@ -994,10 +996,10 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>44347</v>
+        <v>44377</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>3.399</v>
+        <v>3.387</v>
       </c>
       <c r="C44">
         <f>(B44/B56-1)*100</f>
@@ -1006,10 +1008,10 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>44316</v>
+        <v>44347</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>3.449</v>
+        <v>3.399</v>
       </c>
       <c r="C45">
         <f>(B45/B57-1)*100</f>
@@ -1018,10 +1020,10 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>44286</v>
+        <v>44316</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>3.481</v>
+        <v>3.449</v>
       </c>
       <c r="C46">
         <f>(B46/B58-1)*100</f>
@@ -1030,10 +1032,10 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>44255</v>
+        <v>44286</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>3.515</v>
+        <v>3.481</v>
       </c>
       <c r="C47">
         <f>(B47/B59-1)*100</f>
@@ -1042,10 +1044,10 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>44227</v>
+        <v>44255</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>3.578</v>
+        <v>3.515</v>
       </c>
       <c r="C48">
         <f>(B48/B60-1)*100</f>
@@ -1054,10 +1056,10 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>44196</v>
+        <v>44227</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>3.563</v>
+        <v>3.578</v>
       </c>
       <c r="C49">
         <f>(B49/B61-1)*100</f>
@@ -1066,10 +1068,10 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>44165</v>
+        <v>44196</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>3.502</v>
+        <v>3.563</v>
       </c>
       <c r="C50">
         <f>(B50/B62-1)*100</f>
@@ -1078,10 +1080,10 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>44135</v>
+        <v>44165</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>3.564</v>
+        <v>3.502</v>
       </c>
       <c r="C51">
         <f>(B51/B63-1)*100</f>
@@ -1090,13 +1092,25 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>44104</v>
+        <v>44135</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>3.54</v>
+        <v>3.564</v>
       </c>
       <c r="C52">
         <f>(B52/B64-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>44104</v>
+      </c>
+      <c r="B53" s="2" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="C53">
+        <f>(B53/B65-1)*100</f>
         <v/>
       </c>
     </row>

--- a/data/lending-hours.xlsx
+++ b/data/lending-hours.xlsx
@@ -458,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C53"/>
+  <dimension ref="A1:C54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,11 +489,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-12-01</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.37</v>
+        <v>3.411</v>
       </c>
       <c r="C2">
         <f>(B2/B14-1)*100</f>
@@ -503,23 +503,25 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>2024-12-01</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="C3">
+        <f>(B3/B15-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
           <t>2024-11-01</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B4" t="n">
         <v>3.489</v>
-      </c>
-      <c r="C3">
-        <f>(B3/B15-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>45596</v>
-      </c>
-      <c r="B4" s="2" t="n">
-        <v>3.462</v>
       </c>
       <c r="C4">
         <f>(B4/B16-1)*100</f>
@@ -528,10 +530,10 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45565</v>
+        <v>45596</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>3.485</v>
+        <v>3.462</v>
       </c>
       <c r="C5">
         <f>(B5/B17-1)*100</f>
@@ -540,10 +542,10 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45535</v>
+        <v>45565</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>3.586</v>
+        <v>3.485</v>
       </c>
       <c r="C6">
         <f>(B6/B18-1)*100</f>
@@ -552,10 +554,10 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45504</v>
+        <v>45535</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>3.565</v>
+        <v>3.586</v>
       </c>
       <c r="C7">
         <f>(B7/B19-1)*100</f>
@@ -564,10 +566,10 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45473</v>
+        <v>45504</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>3.613</v>
+        <v>3.565</v>
       </c>
       <c r="C8">
         <f>(B8/B20-1)*100</f>
@@ -576,7 +578,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45443</v>
+        <v>45473</v>
       </c>
       <c r="B9" s="2" t="n">
         <v>3.613</v>
@@ -588,10 +590,10 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45412</v>
+        <v>45443</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>3.593</v>
+        <v>3.613</v>
       </c>
       <c r="C10">
         <f>(B10/B22-1)*100</f>
@@ -600,10 +602,10 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45382</v>
+        <v>45412</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>3.621</v>
+        <v>3.593</v>
       </c>
       <c r="C11">
         <f>(B11/B23-1)*100</f>
@@ -612,10 +614,10 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45351</v>
+        <v>45382</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>3.528</v>
+        <v>3.621</v>
       </c>
       <c r="C12">
         <f>(B12/B24-1)*100</f>
@@ -624,10 +626,10 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45322</v>
+        <v>45351</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>3.536</v>
+        <v>3.528</v>
       </c>
       <c r="C13">
         <f>(B13/B25-1)*100</f>
@@ -636,10 +638,10 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45291</v>
+        <v>45322</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>3.504</v>
+        <v>3.536</v>
       </c>
       <c r="C14">
         <f>(B14/B26-1)*100</f>
@@ -648,10 +650,10 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45260</v>
+        <v>45291</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>3.451</v>
+        <v>3.504</v>
       </c>
       <c r="C15">
         <f>(B15/B27-1)*100</f>
@@ -660,10 +662,10 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45230</v>
+        <v>45260</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>3.461</v>
+        <v>3.451</v>
       </c>
       <c r="C16">
         <f>(B16/B28-1)*100</f>
@@ -672,10 +674,10 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45199</v>
+        <v>45230</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>3.446</v>
+        <v>3.461</v>
       </c>
       <c r="C17">
         <f>(B17/B29-1)*100</f>
@@ -684,10 +686,10 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>45169</v>
+        <v>45199</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>3.432</v>
+        <v>3.446</v>
       </c>
       <c r="C18">
         <f>(B18/B30-1)*100</f>
@@ -696,10 +698,10 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>45138</v>
+        <v>45169</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>3.482</v>
+        <v>3.432</v>
       </c>
       <c r="C19">
         <f>(B19/B31-1)*100</f>
@@ -708,10 +710,10 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>45107</v>
+        <v>45138</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>3.452</v>
+        <v>3.482</v>
       </c>
       <c r="C20">
         <f>(B20/B32-1)*100</f>
@@ -720,10 +722,10 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>45077</v>
+        <v>45107</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>3.432</v>
+        <v>3.452</v>
       </c>
       <c r="C21">
         <f>(B21/B33-1)*100</f>
@@ -732,10 +734,10 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>45046</v>
+        <v>45077</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>3.395</v>
+        <v>3.432</v>
       </c>
       <c r="C22">
         <f>(B22/B34-1)*100</f>
@@ -744,10 +746,10 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>45016</v>
+        <v>45046</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>3.384</v>
+        <v>3.395</v>
       </c>
       <c r="C23">
         <f>(B23/B35-1)*100</f>
@@ -756,10 +758,10 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>44985</v>
+        <v>45016</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>3.374</v>
+        <v>3.384</v>
       </c>
       <c r="C24">
         <f>(B24/B36-1)*100</f>
@@ -768,10 +770,10 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>44957</v>
+        <v>44985</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>3.376</v>
+        <v>3.374</v>
       </c>
       <c r="C25">
         <f>(B25/B37-1)*100</f>
@@ -780,10 +782,10 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>44926</v>
+        <v>44957</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>3.413</v>
+        <v>3.376</v>
       </c>
       <c r="C26">
         <f>(B26/B38-1)*100</f>
@@ -792,10 +794,10 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>44895</v>
+        <v>44926</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>3.442</v>
+        <v>3.413</v>
       </c>
       <c r="C27">
         <f>(B27/B39-1)*100</f>
@@ -804,10 +806,10 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>44865</v>
+        <v>44895</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>3.384</v>
+        <v>3.442</v>
       </c>
       <c r="C28">
         <f>(B28/B40-1)*100</f>
@@ -816,10 +818,10 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>44834</v>
+        <v>44865</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>3.396</v>
+        <v>3.384</v>
       </c>
       <c r="C29">
         <f>(B29/B41-1)*100</f>
@@ -828,10 +830,10 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>44804</v>
+        <v>44834</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>3.365</v>
+        <v>3.396</v>
       </c>
       <c r="C30">
         <f>(B30/B42-1)*100</f>
@@ -840,10 +842,10 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>44773</v>
+        <v>44804</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>3.427</v>
+        <v>3.365</v>
       </c>
       <c r="C31">
         <f>(B31/B43-1)*100</f>
@@ -852,10 +854,10 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>44742</v>
+        <v>44773</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>3.312</v>
+        <v>3.427</v>
       </c>
       <c r="C32">
         <f>(B32/B44-1)*100</f>
@@ -864,10 +866,10 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>44712</v>
-      </c>
-      <c r="B33" s="4" t="n">
-        <v>3.317</v>
+        <v>44742</v>
+      </c>
+      <c r="B33" s="2" t="n">
+        <v>3.312</v>
       </c>
       <c r="C33">
         <f>(B33/B45-1)*100</f>
@@ -876,10 +878,10 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>44681</v>
-      </c>
-      <c r="B34" s="2" t="n">
-        <v>3.421</v>
+        <v>44712</v>
+      </c>
+      <c r="B34" s="4" t="n">
+        <v>3.317</v>
       </c>
       <c r="C34">
         <f>(B34/B46-1)*100</f>
@@ -888,10 +890,10 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>44651</v>
+        <v>44681</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>3.371</v>
+        <v>3.421</v>
       </c>
       <c r="C35">
         <f>(B35/B47-1)*100</f>
@@ -900,10 +902,10 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>44620</v>
+        <v>44651</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>3.394</v>
+        <v>3.371</v>
       </c>
       <c r="C36">
         <f>(B36/B48-1)*100</f>
@@ -912,10 +914,10 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>44592</v>
+        <v>44620</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>3.388</v>
+        <v>3.394</v>
       </c>
       <c r="C37">
         <f>(B37/B49-1)*100</f>
@@ -924,10 +926,10 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>44561</v>
+        <v>44592</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>3.379</v>
+        <v>3.388</v>
       </c>
       <c r="C38">
         <f>(B38/B50-1)*100</f>
@@ -936,10 +938,10 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>44530</v>
+        <v>44561</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>3.506</v>
+        <v>3.379</v>
       </c>
       <c r="C39">
         <f>(B39/B51-1)*100</f>
@@ -948,10 +950,10 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>44500</v>
+        <v>44530</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>3.424</v>
+        <v>3.506</v>
       </c>
       <c r="C40">
         <f>(B40/B52-1)*100</f>
@@ -960,10 +962,10 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>44469</v>
+        <v>44500</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>3.387</v>
+        <v>3.424</v>
       </c>
       <c r="C41">
         <f>(B41/B53-1)*100</f>
@@ -972,10 +974,10 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>44439</v>
+        <v>44469</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>3.335</v>
+        <v>3.387</v>
       </c>
       <c r="C42">
         <f>(B42/B54-1)*100</f>
@@ -984,10 +986,10 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>44408</v>
+        <v>44439</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>3.345</v>
+        <v>3.335</v>
       </c>
       <c r="C43">
         <f>(B43/B55-1)*100</f>
@@ -996,10 +998,10 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>44377</v>
+        <v>44408</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>3.387</v>
+        <v>3.345</v>
       </c>
       <c r="C44">
         <f>(B44/B56-1)*100</f>
@@ -1008,10 +1010,10 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>44347</v>
+        <v>44377</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>3.399</v>
+        <v>3.387</v>
       </c>
       <c r="C45">
         <f>(B45/B57-1)*100</f>
@@ -1020,10 +1022,10 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>44316</v>
+        <v>44347</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>3.449</v>
+        <v>3.399</v>
       </c>
       <c r="C46">
         <f>(B46/B58-1)*100</f>
@@ -1032,10 +1034,10 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>44286</v>
+        <v>44316</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>3.481</v>
+        <v>3.449</v>
       </c>
       <c r="C47">
         <f>(B47/B59-1)*100</f>
@@ -1044,10 +1046,10 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>44255</v>
+        <v>44286</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>3.515</v>
+        <v>3.481</v>
       </c>
       <c r="C48">
         <f>(B48/B60-1)*100</f>
@@ -1056,10 +1058,10 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>44227</v>
+        <v>44255</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>3.578</v>
+        <v>3.515</v>
       </c>
       <c r="C49">
         <f>(B49/B61-1)*100</f>
@@ -1068,10 +1070,10 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>44196</v>
+        <v>44227</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>3.563</v>
+        <v>3.578</v>
       </c>
       <c r="C50">
         <f>(B50/B62-1)*100</f>
@@ -1080,10 +1082,10 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>44165</v>
+        <v>44196</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>3.502</v>
+        <v>3.563</v>
       </c>
       <c r="C51">
         <f>(B51/B63-1)*100</f>
@@ -1092,10 +1094,10 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>44135</v>
+        <v>44165</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>3.564</v>
+        <v>3.502</v>
       </c>
       <c r="C52">
         <f>(B52/B64-1)*100</f>
@@ -1104,13 +1106,25 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>44104</v>
+        <v>44135</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>3.54</v>
+        <v>3.564</v>
       </c>
       <c r="C53">
         <f>(B53/B65-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>44104</v>
+      </c>
+      <c r="B54" s="2" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="C54">
+        <f>(B54/B66-1)*100</f>
         <v/>
       </c>
     </row>

--- a/data/lending-hours.xlsx
+++ b/data/lending-hours.xlsx
@@ -458,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C54"/>
+  <dimension ref="A1:C55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,11 +489,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>2025-02-01</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.411</v>
+        <v>3.359</v>
       </c>
       <c r="C2">
         <f>(B2/B14-1)*100</f>
@@ -503,11 +503,11 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2024-12-01</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.37</v>
+        <v>3.411</v>
       </c>
       <c r="C3">
         <f>(B3/B15-1)*100</f>
@@ -517,23 +517,25 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>2024-12-01</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="C4">
+        <f>(B4/B16-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>2024-11-01</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B5" t="n">
         <v>3.489</v>
-      </c>
-      <c r="C4">
-        <f>(B4/B16-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>45596</v>
-      </c>
-      <c r="B5" s="2" t="n">
-        <v>3.462</v>
       </c>
       <c r="C5">
         <f>(B5/B17-1)*100</f>
@@ -542,10 +544,10 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45565</v>
+        <v>45596</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>3.485</v>
+        <v>3.462</v>
       </c>
       <c r="C6">
         <f>(B6/B18-1)*100</f>
@@ -554,10 +556,10 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45535</v>
+        <v>45565</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>3.586</v>
+        <v>3.485</v>
       </c>
       <c r="C7">
         <f>(B7/B19-1)*100</f>
@@ -566,10 +568,10 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45504</v>
+        <v>45535</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>3.565</v>
+        <v>3.586</v>
       </c>
       <c r="C8">
         <f>(B8/B20-1)*100</f>
@@ -578,10 +580,10 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45473</v>
+        <v>45504</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>3.613</v>
+        <v>3.565</v>
       </c>
       <c r="C9">
         <f>(B9/B21-1)*100</f>
@@ -590,7 +592,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45443</v>
+        <v>45473</v>
       </c>
       <c r="B10" s="2" t="n">
         <v>3.613</v>
@@ -602,10 +604,10 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45412</v>
+        <v>45443</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>3.593</v>
+        <v>3.613</v>
       </c>
       <c r="C11">
         <f>(B11/B23-1)*100</f>
@@ -614,10 +616,10 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45382</v>
+        <v>45412</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>3.621</v>
+        <v>3.593</v>
       </c>
       <c r="C12">
         <f>(B12/B24-1)*100</f>
@@ -626,10 +628,10 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45351</v>
+        <v>45382</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>3.528</v>
+        <v>3.621</v>
       </c>
       <c r="C13">
         <f>(B13/B25-1)*100</f>
@@ -638,10 +640,10 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45322</v>
+        <v>45351</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>3.536</v>
+        <v>3.528</v>
       </c>
       <c r="C14">
         <f>(B14/B26-1)*100</f>
@@ -650,10 +652,10 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45291</v>
+        <v>45322</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>3.504</v>
+        <v>3.536</v>
       </c>
       <c r="C15">
         <f>(B15/B27-1)*100</f>
@@ -662,10 +664,10 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45260</v>
+        <v>45291</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>3.451</v>
+        <v>3.504</v>
       </c>
       <c r="C16">
         <f>(B16/B28-1)*100</f>
@@ -674,10 +676,10 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45230</v>
+        <v>45260</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>3.461</v>
+        <v>3.451</v>
       </c>
       <c r="C17">
         <f>(B17/B29-1)*100</f>
@@ -686,10 +688,10 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>45199</v>
+        <v>45230</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>3.446</v>
+        <v>3.461</v>
       </c>
       <c r="C18">
         <f>(B18/B30-1)*100</f>
@@ -698,10 +700,10 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>45169</v>
+        <v>45199</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>3.432</v>
+        <v>3.446</v>
       </c>
       <c r="C19">
         <f>(B19/B31-1)*100</f>
@@ -710,10 +712,10 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>45138</v>
+        <v>45169</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>3.482</v>
+        <v>3.432</v>
       </c>
       <c r="C20">
         <f>(B20/B32-1)*100</f>
@@ -722,10 +724,10 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>45107</v>
+        <v>45138</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>3.452</v>
+        <v>3.482</v>
       </c>
       <c r="C21">
         <f>(B21/B33-1)*100</f>
@@ -734,10 +736,10 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>45077</v>
+        <v>45107</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>3.432</v>
+        <v>3.452</v>
       </c>
       <c r="C22">
         <f>(B22/B34-1)*100</f>
@@ -746,10 +748,10 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>45046</v>
+        <v>45077</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>3.395</v>
+        <v>3.432</v>
       </c>
       <c r="C23">
         <f>(B23/B35-1)*100</f>
@@ -758,10 +760,10 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>45016</v>
+        <v>45046</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>3.384</v>
+        <v>3.395</v>
       </c>
       <c r="C24">
         <f>(B24/B36-1)*100</f>
@@ -770,10 +772,10 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>44985</v>
+        <v>45016</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>3.374</v>
+        <v>3.384</v>
       </c>
       <c r="C25">
         <f>(B25/B37-1)*100</f>
@@ -782,10 +784,10 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>44957</v>
+        <v>44985</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>3.376</v>
+        <v>3.374</v>
       </c>
       <c r="C26">
         <f>(B26/B38-1)*100</f>
@@ -794,10 +796,10 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>44926</v>
+        <v>44957</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>3.413</v>
+        <v>3.376</v>
       </c>
       <c r="C27">
         <f>(B27/B39-1)*100</f>
@@ -806,10 +808,10 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>44895</v>
+        <v>44926</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>3.442</v>
+        <v>3.413</v>
       </c>
       <c r="C28">
         <f>(B28/B40-1)*100</f>
@@ -818,10 +820,10 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>44865</v>
+        <v>44895</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>3.384</v>
+        <v>3.442</v>
       </c>
       <c r="C29">
         <f>(B29/B41-1)*100</f>
@@ -830,10 +832,10 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>44834</v>
+        <v>44865</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>3.396</v>
+        <v>3.384</v>
       </c>
       <c r="C30">
         <f>(B30/B42-1)*100</f>
@@ -842,10 +844,10 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>44804</v>
+        <v>44834</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>3.365</v>
+        <v>3.396</v>
       </c>
       <c r="C31">
         <f>(B31/B43-1)*100</f>
@@ -854,10 +856,10 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>44773</v>
+        <v>44804</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>3.427</v>
+        <v>3.365</v>
       </c>
       <c r="C32">
         <f>(B32/B44-1)*100</f>
@@ -866,10 +868,10 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>44742</v>
+        <v>44773</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>3.312</v>
+        <v>3.427</v>
       </c>
       <c r="C33">
         <f>(B33/B45-1)*100</f>
@@ -878,10 +880,10 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>44712</v>
-      </c>
-      <c r="B34" s="4" t="n">
-        <v>3.317</v>
+        <v>44742</v>
+      </c>
+      <c r="B34" s="2" t="n">
+        <v>3.312</v>
       </c>
       <c r="C34">
         <f>(B34/B46-1)*100</f>
@@ -890,10 +892,10 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>44681</v>
-      </c>
-      <c r="B35" s="2" t="n">
-        <v>3.421</v>
+        <v>44712</v>
+      </c>
+      <c r="B35" s="4" t="n">
+        <v>3.317</v>
       </c>
       <c r="C35">
         <f>(B35/B47-1)*100</f>
@@ -902,10 +904,10 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>44651</v>
+        <v>44681</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>3.371</v>
+        <v>3.421</v>
       </c>
       <c r="C36">
         <f>(B36/B48-1)*100</f>
@@ -914,10 +916,10 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>44620</v>
+        <v>44651</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>3.394</v>
+        <v>3.371</v>
       </c>
       <c r="C37">
         <f>(B37/B49-1)*100</f>
@@ -926,10 +928,10 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>44592</v>
+        <v>44620</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>3.388</v>
+        <v>3.394</v>
       </c>
       <c r="C38">
         <f>(B38/B50-1)*100</f>
@@ -938,10 +940,10 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>44561</v>
+        <v>44592</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>3.379</v>
+        <v>3.388</v>
       </c>
       <c r="C39">
         <f>(B39/B51-1)*100</f>
@@ -950,10 +952,10 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>44530</v>
+        <v>44561</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>3.506</v>
+        <v>3.379</v>
       </c>
       <c r="C40">
         <f>(B40/B52-1)*100</f>
@@ -962,10 +964,10 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>44500</v>
+        <v>44530</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>3.424</v>
+        <v>3.506</v>
       </c>
       <c r="C41">
         <f>(B41/B53-1)*100</f>
@@ -974,10 +976,10 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>44469</v>
+        <v>44500</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>3.387</v>
+        <v>3.424</v>
       </c>
       <c r="C42">
         <f>(B42/B54-1)*100</f>
@@ -986,10 +988,10 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>44439</v>
+        <v>44469</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>3.335</v>
+        <v>3.387</v>
       </c>
       <c r="C43">
         <f>(B43/B55-1)*100</f>
@@ -998,10 +1000,10 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>44408</v>
+        <v>44439</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>3.345</v>
+        <v>3.335</v>
       </c>
       <c r="C44">
         <f>(B44/B56-1)*100</f>
@@ -1010,10 +1012,10 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>44377</v>
+        <v>44408</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>3.387</v>
+        <v>3.345</v>
       </c>
       <c r="C45">
         <f>(B45/B57-1)*100</f>
@@ -1022,10 +1024,10 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>44347</v>
+        <v>44377</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>3.399</v>
+        <v>3.387</v>
       </c>
       <c r="C46">
         <f>(B46/B58-1)*100</f>
@@ -1034,10 +1036,10 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>44316</v>
+        <v>44347</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>3.449</v>
+        <v>3.399</v>
       </c>
       <c r="C47">
         <f>(B47/B59-1)*100</f>
@@ -1046,10 +1048,10 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>44286</v>
+        <v>44316</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>3.481</v>
+        <v>3.449</v>
       </c>
       <c r="C48">
         <f>(B48/B60-1)*100</f>
@@ -1058,10 +1060,10 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>44255</v>
+        <v>44286</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>3.515</v>
+        <v>3.481</v>
       </c>
       <c r="C49">
         <f>(B49/B61-1)*100</f>
@@ -1070,10 +1072,10 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>44227</v>
+        <v>44255</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>3.578</v>
+        <v>3.515</v>
       </c>
       <c r="C50">
         <f>(B50/B62-1)*100</f>
@@ -1082,10 +1084,10 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>44196</v>
+        <v>44227</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>3.563</v>
+        <v>3.578</v>
       </c>
       <c r="C51">
         <f>(B51/B63-1)*100</f>
@@ -1094,10 +1096,10 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>44165</v>
+        <v>44196</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>3.502</v>
+        <v>3.563</v>
       </c>
       <c r="C52">
         <f>(B52/B64-1)*100</f>
@@ -1106,10 +1108,10 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>44135</v>
+        <v>44165</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>3.564</v>
+        <v>3.502</v>
       </c>
       <c r="C53">
         <f>(B53/B65-1)*100</f>
@@ -1118,13 +1120,25 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>44104</v>
+        <v>44135</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>3.54</v>
+        <v>3.564</v>
       </c>
       <c r="C54">
         <f>(B54/B66-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>44104</v>
+      </c>
+      <c r="B55" s="2" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="C55">
+        <f>(B55/B67-1)*100</f>
         <v/>
       </c>
     </row>

--- a/data/lending-hours.xlsx
+++ b/data/lending-hours.xlsx
@@ -458,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C55"/>
+  <dimension ref="A1:C56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,11 +489,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-02-01</t>
+          <t>2025-03-01</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.359</v>
+        <v>3.393</v>
       </c>
       <c r="C2">
         <f>(B2/B14-1)*100</f>
@@ -503,11 +503,11 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>2025-02-01</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.411</v>
+        <v>3.359</v>
       </c>
       <c r="C3">
         <f>(B3/B15-1)*100</f>
@@ -517,11 +517,11 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2024-12-01</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.37</v>
+        <v>3.411</v>
       </c>
       <c r="C4">
         <f>(B4/B16-1)*100</f>
@@ -531,23 +531,25 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>2024-12-01</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="C5">
+        <f>(B5/B17-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
           <t>2024-11-01</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B6" t="n">
         <v>3.489</v>
-      </c>
-      <c r="C5">
-        <f>(B5/B17-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>45596</v>
-      </c>
-      <c r="B6" s="2" t="n">
-        <v>3.462</v>
       </c>
       <c r="C6">
         <f>(B6/B18-1)*100</f>
@@ -556,10 +558,10 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45565</v>
+        <v>45596</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>3.485</v>
+        <v>3.462</v>
       </c>
       <c r="C7">
         <f>(B7/B19-1)*100</f>
@@ -568,10 +570,10 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45535</v>
+        <v>45565</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>3.586</v>
+        <v>3.485</v>
       </c>
       <c r="C8">
         <f>(B8/B20-1)*100</f>
@@ -580,10 +582,10 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45504</v>
+        <v>45535</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>3.565</v>
+        <v>3.586</v>
       </c>
       <c r="C9">
         <f>(B9/B21-1)*100</f>
@@ -592,10 +594,10 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45473</v>
+        <v>45504</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>3.613</v>
+        <v>3.565</v>
       </c>
       <c r="C10">
         <f>(B10/B22-1)*100</f>
@@ -604,7 +606,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45443</v>
+        <v>45473</v>
       </c>
       <c r="B11" s="2" t="n">
         <v>3.613</v>
@@ -616,10 +618,10 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45412</v>
+        <v>45443</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>3.593</v>
+        <v>3.613</v>
       </c>
       <c r="C12">
         <f>(B12/B24-1)*100</f>
@@ -628,10 +630,10 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45382</v>
+        <v>45412</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>3.621</v>
+        <v>3.593</v>
       </c>
       <c r="C13">
         <f>(B13/B25-1)*100</f>
@@ -640,10 +642,10 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45351</v>
+        <v>45382</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>3.528</v>
+        <v>3.621</v>
       </c>
       <c r="C14">
         <f>(B14/B26-1)*100</f>
@@ -652,10 +654,10 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45322</v>
+        <v>45351</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>3.536</v>
+        <v>3.528</v>
       </c>
       <c r="C15">
         <f>(B15/B27-1)*100</f>
@@ -664,10 +666,10 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45291</v>
+        <v>45322</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>3.504</v>
+        <v>3.536</v>
       </c>
       <c r="C16">
         <f>(B16/B28-1)*100</f>
@@ -676,10 +678,10 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45260</v>
+        <v>45291</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>3.451</v>
+        <v>3.504</v>
       </c>
       <c r="C17">
         <f>(B17/B29-1)*100</f>
@@ -688,10 +690,10 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>45230</v>
+        <v>45260</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>3.461</v>
+        <v>3.451</v>
       </c>
       <c r="C18">
         <f>(B18/B30-1)*100</f>
@@ -700,10 +702,10 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>45199</v>
+        <v>45230</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>3.446</v>
+        <v>3.461</v>
       </c>
       <c r="C19">
         <f>(B19/B31-1)*100</f>
@@ -712,10 +714,10 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>45169</v>
+        <v>45199</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>3.432</v>
+        <v>3.446</v>
       </c>
       <c r="C20">
         <f>(B20/B32-1)*100</f>
@@ -724,10 +726,10 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>45138</v>
+        <v>45169</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>3.482</v>
+        <v>3.432</v>
       </c>
       <c r="C21">
         <f>(B21/B33-1)*100</f>
@@ -736,10 +738,10 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>45107</v>
+        <v>45138</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>3.452</v>
+        <v>3.482</v>
       </c>
       <c r="C22">
         <f>(B22/B34-1)*100</f>
@@ -748,10 +750,10 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>45077</v>
+        <v>45107</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>3.432</v>
+        <v>3.452</v>
       </c>
       <c r="C23">
         <f>(B23/B35-1)*100</f>
@@ -760,10 +762,10 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>45046</v>
+        <v>45077</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>3.395</v>
+        <v>3.432</v>
       </c>
       <c r="C24">
         <f>(B24/B36-1)*100</f>
@@ -772,10 +774,10 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>45016</v>
+        <v>45046</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>3.384</v>
+        <v>3.395</v>
       </c>
       <c r="C25">
         <f>(B25/B37-1)*100</f>
@@ -784,10 +786,10 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>44985</v>
+        <v>45016</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>3.374</v>
+        <v>3.384</v>
       </c>
       <c r="C26">
         <f>(B26/B38-1)*100</f>
@@ -796,10 +798,10 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>44957</v>
+        <v>44985</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>3.376</v>
+        <v>3.374</v>
       </c>
       <c r="C27">
         <f>(B27/B39-1)*100</f>
@@ -808,10 +810,10 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>44926</v>
+        <v>44957</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>3.413</v>
+        <v>3.376</v>
       </c>
       <c r="C28">
         <f>(B28/B40-1)*100</f>
@@ -820,10 +822,10 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>44895</v>
+        <v>44926</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>3.442</v>
+        <v>3.413</v>
       </c>
       <c r="C29">
         <f>(B29/B41-1)*100</f>
@@ -832,10 +834,10 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>44865</v>
+        <v>44895</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>3.384</v>
+        <v>3.442</v>
       </c>
       <c r="C30">
         <f>(B30/B42-1)*100</f>
@@ -844,10 +846,10 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>44834</v>
+        <v>44865</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>3.396</v>
+        <v>3.384</v>
       </c>
       <c r="C31">
         <f>(B31/B43-1)*100</f>
@@ -856,10 +858,10 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>44804</v>
+        <v>44834</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>3.365</v>
+        <v>3.396</v>
       </c>
       <c r="C32">
         <f>(B32/B44-1)*100</f>
@@ -868,10 +870,10 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>44773</v>
+        <v>44804</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>3.427</v>
+        <v>3.365</v>
       </c>
       <c r="C33">
         <f>(B33/B45-1)*100</f>
@@ -880,10 +882,10 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>44742</v>
+        <v>44773</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>3.312</v>
+        <v>3.427</v>
       </c>
       <c r="C34">
         <f>(B34/B46-1)*100</f>
@@ -892,10 +894,10 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>44712</v>
-      </c>
-      <c r="B35" s="4" t="n">
-        <v>3.317</v>
+        <v>44742</v>
+      </c>
+      <c r="B35" s="2" t="n">
+        <v>3.312</v>
       </c>
       <c r="C35">
         <f>(B35/B47-1)*100</f>
@@ -904,10 +906,10 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>44681</v>
-      </c>
-      <c r="B36" s="2" t="n">
-        <v>3.421</v>
+        <v>44712</v>
+      </c>
+      <c r="B36" s="4" t="n">
+        <v>3.317</v>
       </c>
       <c r="C36">
         <f>(B36/B48-1)*100</f>
@@ -916,10 +918,10 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>44651</v>
+        <v>44681</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>3.371</v>
+        <v>3.421</v>
       </c>
       <c r="C37">
         <f>(B37/B49-1)*100</f>
@@ -928,10 +930,10 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>44620</v>
+        <v>44651</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>3.394</v>
+        <v>3.371</v>
       </c>
       <c r="C38">
         <f>(B38/B50-1)*100</f>
@@ -940,10 +942,10 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>44592</v>
+        <v>44620</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>3.388</v>
+        <v>3.394</v>
       </c>
       <c r="C39">
         <f>(B39/B51-1)*100</f>
@@ -952,10 +954,10 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>44561</v>
+        <v>44592</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>3.379</v>
+        <v>3.388</v>
       </c>
       <c r="C40">
         <f>(B40/B52-1)*100</f>
@@ -964,10 +966,10 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>44530</v>
+        <v>44561</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>3.506</v>
+        <v>3.379</v>
       </c>
       <c r="C41">
         <f>(B41/B53-1)*100</f>
@@ -976,10 +978,10 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>44500</v>
+        <v>44530</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>3.424</v>
+        <v>3.506</v>
       </c>
       <c r="C42">
         <f>(B42/B54-1)*100</f>
@@ -988,10 +990,10 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>44469</v>
+        <v>44500</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>3.387</v>
+        <v>3.424</v>
       </c>
       <c r="C43">
         <f>(B43/B55-1)*100</f>
@@ -1000,10 +1002,10 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>44439</v>
+        <v>44469</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>3.335</v>
+        <v>3.387</v>
       </c>
       <c r="C44">
         <f>(B44/B56-1)*100</f>
@@ -1012,10 +1014,10 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>44408</v>
+        <v>44439</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>3.345</v>
+        <v>3.335</v>
       </c>
       <c r="C45">
         <f>(B45/B57-1)*100</f>
@@ -1024,10 +1026,10 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>44377</v>
+        <v>44408</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>3.387</v>
+        <v>3.345</v>
       </c>
       <c r="C46">
         <f>(B46/B58-1)*100</f>
@@ -1036,10 +1038,10 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>44347</v>
+        <v>44377</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>3.399</v>
+        <v>3.387</v>
       </c>
       <c r="C47">
         <f>(B47/B59-1)*100</f>
@@ -1048,10 +1050,10 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>44316</v>
+        <v>44347</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>3.449</v>
+        <v>3.399</v>
       </c>
       <c r="C48">
         <f>(B48/B60-1)*100</f>
@@ -1060,10 +1062,10 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>44286</v>
+        <v>44316</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>3.481</v>
+        <v>3.449</v>
       </c>
       <c r="C49">
         <f>(B49/B61-1)*100</f>
@@ -1072,10 +1074,10 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>44255</v>
+        <v>44286</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>3.515</v>
+        <v>3.481</v>
       </c>
       <c r="C50">
         <f>(B50/B62-1)*100</f>
@@ -1084,10 +1086,10 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>44227</v>
+        <v>44255</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>3.578</v>
+        <v>3.515</v>
       </c>
       <c r="C51">
         <f>(B51/B63-1)*100</f>
@@ -1096,10 +1098,10 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>44196</v>
+        <v>44227</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>3.563</v>
+        <v>3.578</v>
       </c>
       <c r="C52">
         <f>(B52/B64-1)*100</f>
@@ -1108,10 +1110,10 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>44165</v>
+        <v>44196</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>3.502</v>
+        <v>3.563</v>
       </c>
       <c r="C53">
         <f>(B53/B65-1)*100</f>
@@ -1120,10 +1122,10 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>44135</v>
+        <v>44165</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>3.564</v>
+        <v>3.502</v>
       </c>
       <c r="C54">
         <f>(B54/B66-1)*100</f>
@@ -1132,13 +1134,25 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>44104</v>
+        <v>44135</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>3.54</v>
+        <v>3.564</v>
       </c>
       <c r="C55">
         <f>(B55/B67-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>44104</v>
+      </c>
+      <c r="B56" s="2" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="C56">
+        <f>(B56/B68-1)*100</f>
         <v/>
       </c>
     </row>

--- a/data/lending-hours.xlsx
+++ b/data/lending-hours.xlsx
@@ -458,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C56"/>
+  <dimension ref="A1:C57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,11 +489,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-03-01</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.393</v>
+        <v>3.409</v>
       </c>
       <c r="C2">
         <f>(B2/B14-1)*100</f>
@@ -503,11 +503,11 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-02-01</t>
+          <t>2025-03-01</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.359</v>
+        <v>3.393</v>
       </c>
       <c r="C3">
         <f>(B3/B15-1)*100</f>
@@ -517,11 +517,11 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>2025-02-01</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.411</v>
+        <v>3.359</v>
       </c>
       <c r="C4">
         <f>(B4/B16-1)*100</f>
@@ -531,11 +531,11 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2024-12-01</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.37</v>
+        <v>3.411</v>
       </c>
       <c r="C5">
         <f>(B5/B17-1)*100</f>
@@ -545,23 +545,25 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>2024-12-01</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="C6">
+        <f>(B6/B18-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
           <t>2024-11-01</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B7" t="n">
         <v>3.489</v>
-      </c>
-      <c r="C6">
-        <f>(B6/B18-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>45596</v>
-      </c>
-      <c r="B7" s="2" t="n">
-        <v>3.462</v>
       </c>
       <c r="C7">
         <f>(B7/B19-1)*100</f>
@@ -570,10 +572,10 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45565</v>
+        <v>45596</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>3.485</v>
+        <v>3.462</v>
       </c>
       <c r="C8">
         <f>(B8/B20-1)*100</f>
@@ -582,10 +584,10 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45535</v>
+        <v>45565</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>3.586</v>
+        <v>3.485</v>
       </c>
       <c r="C9">
         <f>(B9/B21-1)*100</f>
@@ -594,10 +596,10 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45504</v>
+        <v>45535</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>3.565</v>
+        <v>3.586</v>
       </c>
       <c r="C10">
         <f>(B10/B22-1)*100</f>
@@ -606,10 +608,10 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45473</v>
+        <v>45504</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>3.613</v>
+        <v>3.565</v>
       </c>
       <c r="C11">
         <f>(B11/B23-1)*100</f>
@@ -618,7 +620,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45443</v>
+        <v>45473</v>
       </c>
       <c r="B12" s="2" t="n">
         <v>3.613</v>
@@ -630,10 +632,10 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45412</v>
+        <v>45443</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>3.593</v>
+        <v>3.613</v>
       </c>
       <c r="C13">
         <f>(B13/B25-1)*100</f>
@@ -642,10 +644,10 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45382</v>
+        <v>45412</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>3.621</v>
+        <v>3.593</v>
       </c>
       <c r="C14">
         <f>(B14/B26-1)*100</f>
@@ -654,10 +656,10 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45351</v>
+        <v>45382</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>3.528</v>
+        <v>3.621</v>
       </c>
       <c r="C15">
         <f>(B15/B27-1)*100</f>
@@ -666,10 +668,10 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45322</v>
+        <v>45351</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>3.536</v>
+        <v>3.528</v>
       </c>
       <c r="C16">
         <f>(B16/B28-1)*100</f>
@@ -678,10 +680,10 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45291</v>
+        <v>45322</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>3.504</v>
+        <v>3.536</v>
       </c>
       <c r="C17">
         <f>(B17/B29-1)*100</f>
@@ -690,10 +692,10 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>45260</v>
+        <v>45291</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>3.451</v>
+        <v>3.504</v>
       </c>
       <c r="C18">
         <f>(B18/B30-1)*100</f>
@@ -702,10 +704,10 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>45230</v>
+        <v>45260</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>3.461</v>
+        <v>3.451</v>
       </c>
       <c r="C19">
         <f>(B19/B31-1)*100</f>
@@ -714,10 +716,10 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>45199</v>
+        <v>45230</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>3.446</v>
+        <v>3.461</v>
       </c>
       <c r="C20">
         <f>(B20/B32-1)*100</f>
@@ -726,10 +728,10 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>45169</v>
+        <v>45199</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>3.432</v>
+        <v>3.446</v>
       </c>
       <c r="C21">
         <f>(B21/B33-1)*100</f>
@@ -738,10 +740,10 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>45138</v>
+        <v>45169</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>3.482</v>
+        <v>3.432</v>
       </c>
       <c r="C22">
         <f>(B22/B34-1)*100</f>
@@ -750,10 +752,10 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>45107</v>
+        <v>45138</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>3.452</v>
+        <v>3.482</v>
       </c>
       <c r="C23">
         <f>(B23/B35-1)*100</f>
@@ -762,10 +764,10 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>45077</v>
+        <v>45107</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>3.432</v>
+        <v>3.452</v>
       </c>
       <c r="C24">
         <f>(B24/B36-1)*100</f>
@@ -774,10 +776,10 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>45046</v>
+        <v>45077</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>3.395</v>
+        <v>3.432</v>
       </c>
       <c r="C25">
         <f>(B25/B37-1)*100</f>
@@ -786,10 +788,10 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>45016</v>
+        <v>45046</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>3.384</v>
+        <v>3.395</v>
       </c>
       <c r="C26">
         <f>(B26/B38-1)*100</f>
@@ -798,10 +800,10 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>44985</v>
+        <v>45016</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>3.374</v>
+        <v>3.384</v>
       </c>
       <c r="C27">
         <f>(B27/B39-1)*100</f>
@@ -810,10 +812,10 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>44957</v>
+        <v>44985</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>3.376</v>
+        <v>3.374</v>
       </c>
       <c r="C28">
         <f>(B28/B40-1)*100</f>
@@ -822,10 +824,10 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>44926</v>
+        <v>44957</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>3.413</v>
+        <v>3.376</v>
       </c>
       <c r="C29">
         <f>(B29/B41-1)*100</f>
@@ -834,10 +836,10 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>44895</v>
+        <v>44926</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>3.442</v>
+        <v>3.413</v>
       </c>
       <c r="C30">
         <f>(B30/B42-1)*100</f>
@@ -846,10 +848,10 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>44865</v>
+        <v>44895</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>3.384</v>
+        <v>3.442</v>
       </c>
       <c r="C31">
         <f>(B31/B43-1)*100</f>
@@ -858,10 +860,10 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>44834</v>
+        <v>44865</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>3.396</v>
+        <v>3.384</v>
       </c>
       <c r="C32">
         <f>(B32/B44-1)*100</f>
@@ -870,10 +872,10 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>44804</v>
+        <v>44834</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>3.365</v>
+        <v>3.396</v>
       </c>
       <c r="C33">
         <f>(B33/B45-1)*100</f>
@@ -882,10 +884,10 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>44773</v>
+        <v>44804</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>3.427</v>
+        <v>3.365</v>
       </c>
       <c r="C34">
         <f>(B34/B46-1)*100</f>
@@ -894,10 +896,10 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>44742</v>
+        <v>44773</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>3.312</v>
+        <v>3.427</v>
       </c>
       <c r="C35">
         <f>(B35/B47-1)*100</f>
@@ -906,10 +908,10 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>44712</v>
-      </c>
-      <c r="B36" s="4" t="n">
-        <v>3.317</v>
+        <v>44742</v>
+      </c>
+      <c r="B36" s="2" t="n">
+        <v>3.312</v>
       </c>
       <c r="C36">
         <f>(B36/B48-1)*100</f>
@@ -918,10 +920,10 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>44681</v>
-      </c>
-      <c r="B37" s="2" t="n">
-        <v>3.421</v>
+        <v>44712</v>
+      </c>
+      <c r="B37" s="4" t="n">
+        <v>3.317</v>
       </c>
       <c r="C37">
         <f>(B37/B49-1)*100</f>
@@ -930,10 +932,10 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>44651</v>
+        <v>44681</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>3.371</v>
+        <v>3.421</v>
       </c>
       <c r="C38">
         <f>(B38/B50-1)*100</f>
@@ -942,10 +944,10 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>44620</v>
+        <v>44651</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>3.394</v>
+        <v>3.371</v>
       </c>
       <c r="C39">
         <f>(B39/B51-1)*100</f>
@@ -954,10 +956,10 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>44592</v>
+        <v>44620</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>3.388</v>
+        <v>3.394</v>
       </c>
       <c r="C40">
         <f>(B40/B52-1)*100</f>
@@ -966,10 +968,10 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>44561</v>
+        <v>44592</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>3.379</v>
+        <v>3.388</v>
       </c>
       <c r="C41">
         <f>(B41/B53-1)*100</f>
@@ -978,10 +980,10 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>44530</v>
+        <v>44561</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>3.506</v>
+        <v>3.379</v>
       </c>
       <c r="C42">
         <f>(B42/B54-1)*100</f>
@@ -990,10 +992,10 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>44500</v>
+        <v>44530</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>3.424</v>
+        <v>3.506</v>
       </c>
       <c r="C43">
         <f>(B43/B55-1)*100</f>
@@ -1002,10 +1004,10 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>44469</v>
+        <v>44500</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>3.387</v>
+        <v>3.424</v>
       </c>
       <c r="C44">
         <f>(B44/B56-1)*100</f>
@@ -1014,10 +1016,10 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>44439</v>
+        <v>44469</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>3.335</v>
+        <v>3.387</v>
       </c>
       <c r="C45">
         <f>(B45/B57-1)*100</f>
@@ -1026,10 +1028,10 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>44408</v>
+        <v>44439</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>3.345</v>
+        <v>3.335</v>
       </c>
       <c r="C46">
         <f>(B46/B58-1)*100</f>
@@ -1038,10 +1040,10 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>44377</v>
+        <v>44408</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>3.387</v>
+        <v>3.345</v>
       </c>
       <c r="C47">
         <f>(B47/B59-1)*100</f>
@@ -1050,10 +1052,10 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>44347</v>
+        <v>44377</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>3.399</v>
+        <v>3.387</v>
       </c>
       <c r="C48">
         <f>(B48/B60-1)*100</f>
@@ -1062,10 +1064,10 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>44316</v>
+        <v>44347</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>3.449</v>
+        <v>3.399</v>
       </c>
       <c r="C49">
         <f>(B49/B61-1)*100</f>
@@ -1074,10 +1076,10 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>44286</v>
+        <v>44316</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>3.481</v>
+        <v>3.449</v>
       </c>
       <c r="C50">
         <f>(B50/B62-1)*100</f>
@@ -1086,10 +1088,10 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>44255</v>
+        <v>44286</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>3.515</v>
+        <v>3.481</v>
       </c>
       <c r="C51">
         <f>(B51/B63-1)*100</f>
@@ -1098,10 +1100,10 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>44227</v>
+        <v>44255</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>3.578</v>
+        <v>3.515</v>
       </c>
       <c r="C52">
         <f>(B52/B64-1)*100</f>
@@ -1110,10 +1112,10 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>44196</v>
+        <v>44227</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>3.563</v>
+        <v>3.578</v>
       </c>
       <c r="C53">
         <f>(B53/B65-1)*100</f>
@@ -1122,10 +1124,10 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>44165</v>
+        <v>44196</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>3.502</v>
+        <v>3.563</v>
       </c>
       <c r="C54">
         <f>(B54/B66-1)*100</f>
@@ -1134,10 +1136,10 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>44135</v>
+        <v>44165</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>3.564</v>
+        <v>3.502</v>
       </c>
       <c r="C55">
         <f>(B55/B67-1)*100</f>
@@ -1146,13 +1148,25 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>44104</v>
+        <v>44135</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>3.54</v>
+        <v>3.564</v>
       </c>
       <c r="C56">
         <f>(B56/B68-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>44104</v>
+      </c>
+      <c r="B57" s="2" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="C57">
+        <f>(B57/B69-1)*100</f>
         <v/>
       </c>
     </row>

--- a/data/lending-hours.xlsx
+++ b/data/lending-hours.xlsx
@@ -455,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C57"/>
+  <dimension ref="A1:C58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,692 +486,705 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-05-01</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.409</v>
+        <v>3.368</v>
       </c>
       <c r="C2" t="n">
-        <v>-5.1</v>
+        <v>-6.8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-03-01</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.393</v>
+        <v>3.409</v>
       </c>
       <c r="C3" t="n">
-        <v>-6.3</v>
+        <v>-5.1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-02-01</t>
+          <t>2025-03-01</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.359</v>
+        <v>3.393</v>
       </c>
       <c r="C4" t="n">
-        <v>-4.8</v>
+        <v>-6.3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>2025-02-01</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.411</v>
+        <v>3.359</v>
       </c>
       <c r="C5" t="n">
-        <v>-3.5</v>
+        <v>-4.8</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2024-12-01</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.37</v>
+        <v>3.411</v>
       </c>
       <c r="C6" t="n">
-        <v>-3.8</v>
+        <v>-3.5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2024-11-01</t>
+          <t>2024-12-01</t>
         </is>
       </c>
       <c r="B7" s="2" t="n">
-        <v>3.489</v>
+        <v>3.37</v>
       </c>
       <c r="C7" t="n">
-        <v>1.1</v>
+        <v>-3.8</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2024-10-31</t>
+          <t>2024-11-01</t>
         </is>
       </c>
       <c r="B8" s="2" t="n">
-        <v>3.462</v>
+        <v>3.489</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-10-31</t>
         </is>
       </c>
       <c r="B9" s="2" t="n">
-        <v>3.485</v>
+        <v>3.462</v>
       </c>
       <c r="C9" t="n">
-        <v>1.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2024-08-31</t>
+          <t>2024-09-30</t>
         </is>
       </c>
       <c r="B10" s="2" t="n">
-        <v>3.586</v>
+        <v>3.485</v>
       </c>
       <c r="C10" t="n">
-        <v>4.5</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2024-07-31</t>
+          <t>2024-08-31</t>
         </is>
       </c>
       <c r="B11" s="2" t="n">
-        <v>3.565</v>
+        <v>3.586</v>
       </c>
       <c r="C11" t="n">
-        <v>2.4</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2024-06-30</t>
+          <t>2024-07-31</t>
         </is>
       </c>
       <c r="B12" s="2" t="n">
-        <v>3.613</v>
+        <v>3.565</v>
       </c>
       <c r="C12" t="n">
-        <v>4.7</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2024-05-31</t>
+          <t>2024-06-30</t>
         </is>
       </c>
       <c r="B13" s="2" t="n">
         <v>3.613</v>
       </c>
       <c r="C13" t="n">
-        <v>5.3</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2024-04-30</t>
+          <t>2024-05-31</t>
         </is>
       </c>
       <c r="B14" s="2" t="n">
-        <v>3.593</v>
+        <v>3.613</v>
       </c>
       <c r="C14" t="n">
-        <v>5.8</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2024-03-31</t>
+          <t>2024-04-30</t>
         </is>
       </c>
       <c r="B15" s="2" t="n">
-        <v>3.621</v>
+        <v>3.593</v>
       </c>
       <c r="C15" t="n">
-        <v>7</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2024-02-29</t>
+          <t>2024-03-31</t>
         </is>
       </c>
       <c r="B16" s="2" t="n">
-        <v>3.528</v>
+        <v>3.621</v>
       </c>
       <c r="C16" t="n">
-        <v>4.6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2024-01-31</t>
+          <t>2024-02-29</t>
         </is>
       </c>
       <c r="B17" s="2" t="n">
-        <v>3.536</v>
+        <v>3.528</v>
       </c>
       <c r="C17" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2023-12-31</t>
+          <t>2024-01-31</t>
         </is>
       </c>
       <c r="B18" s="2" t="n">
-        <v>3.504</v>
+        <v>3.536</v>
       </c>
       <c r="C18" t="n">
-        <v>2.7</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2023-11-30</t>
+          <t>2023-12-31</t>
         </is>
       </c>
       <c r="B19" s="2" t="n">
-        <v>3.451</v>
+        <v>3.504</v>
       </c>
       <c r="C19" t="n">
-        <v>0.3</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2023-10-31</t>
+          <t>2023-11-30</t>
         </is>
       </c>
       <c r="B20" s="2" t="n">
-        <v>3.461</v>
+        <v>3.451</v>
       </c>
       <c r="C20" t="n">
-        <v>2.3</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2023-09-30</t>
+          <t>2023-10-31</t>
         </is>
       </c>
       <c r="B21" s="2" t="n">
-        <v>3.446</v>
+        <v>3.461</v>
       </c>
       <c r="C21" t="n">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-30</t>
         </is>
       </c>
       <c r="B22" s="2" t="n">
-        <v>3.432</v>
+        <v>3.446</v>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2023-07-31</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="B23" s="2" t="n">
-        <v>3.482</v>
+        <v>3.432</v>
       </c>
       <c r="C23" t="n">
-        <v>1.6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2023-06-30</t>
+          <t>2023-07-31</t>
         </is>
       </c>
       <c r="B24" s="2" t="n">
-        <v>3.452</v>
+        <v>3.482</v>
       </c>
       <c r="C24" t="n">
-        <v>4.2</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2023-05-31</t>
+          <t>2023-06-30</t>
         </is>
       </c>
       <c r="B25" s="2" t="n">
-        <v>3.432</v>
+        <v>3.452</v>
       </c>
       <c r="C25" t="n">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2023-04-30</t>
+          <t>2023-05-31</t>
         </is>
       </c>
       <c r="B26" s="2" t="n">
-        <v>3.395</v>
+        <v>3.432</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.8</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>2023-04-30</t>
         </is>
       </c>
       <c r="B27" s="2" t="n">
-        <v>3.384</v>
+        <v>3.395</v>
       </c>
       <c r="C27" t="n">
-        <v>0.4</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2023-02-28</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="B28" s="2" t="n">
-        <v>3.374</v>
+        <v>3.384</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2023-01-31</t>
+          <t>2023-02-28</t>
         </is>
       </c>
       <c r="B29" s="2" t="n">
-        <v>3.376</v>
+        <v>3.374</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.4</v>
+        <v>-0.6</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2022-12-31</t>
+          <t>2023-01-31</t>
         </is>
       </c>
       <c r="B30" s="2" t="n">
-        <v>3.413</v>
+        <v>3.376</v>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2022-11-30</t>
+          <t>2022-12-31</t>
         </is>
       </c>
       <c r="B31" s="2" t="n">
-        <v>3.442</v>
+        <v>3.413</v>
       </c>
       <c r="C31" t="n">
-        <v>-1.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2022-10-31</t>
+          <t>2022-11-30</t>
         </is>
       </c>
       <c r="B32" s="2" t="n">
-        <v>3.384</v>
+        <v>3.442</v>
       </c>
       <c r="C32" t="n">
-        <v>-1.2</v>
+        <v>-1.8</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2022-09-30</t>
+          <t>2022-10-31</t>
         </is>
       </c>
       <c r="B33" s="2" t="n">
-        <v>3.396</v>
+        <v>3.384</v>
       </c>
       <c r="C33" t="n">
-        <v>0.3</v>
+        <v>-1.2</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2022-08-31</t>
+          <t>2022-09-30</t>
         </is>
       </c>
       <c r="B34" s="2" t="n">
-        <v>3.365</v>
+        <v>3.396</v>
       </c>
       <c r="C34" t="n">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2022-07-31</t>
+          <t>2022-08-31</t>
         </is>
       </c>
       <c r="B35" s="2" t="n">
-        <v>3.427</v>
+        <v>3.365</v>
       </c>
       <c r="C35" t="n">
-        <v>2.5</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2022-06-30</t>
+          <t>2022-07-31</t>
         </is>
       </c>
       <c r="B36" s="3" t="n">
-        <v>3.312</v>
+        <v>3.427</v>
       </c>
       <c r="C36" t="n">
-        <v>-2.2</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2022-05-31</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="B37" s="2" t="n">
-        <v>3.317</v>
+        <v>3.312</v>
       </c>
       <c r="C37" t="n">
-        <v>-2.4</v>
+        <v>-2.2</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2022-04-30</t>
+          <t>2022-05-31</t>
         </is>
       </c>
       <c r="B38" s="2" t="n">
-        <v>3.421</v>
+        <v>3.317</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.8</v>
+        <v>-2.4</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2022-03-31</t>
+          <t>2022-04-30</t>
         </is>
       </c>
       <c r="B39" s="2" t="n">
-        <v>3.371</v>
+        <v>3.421</v>
       </c>
       <c r="C39" t="n">
-        <v>-3.2</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2022-02-28</t>
+          <t>2022-03-31</t>
         </is>
       </c>
       <c r="B40" s="2" t="n">
-        <v>3.394</v>
+        <v>3.371</v>
       </c>
       <c r="C40" t="n">
-        <v>-3.4</v>
+        <v>-3.2</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>2022-01-31</t>
+          <t>2022-02-28</t>
         </is>
       </c>
       <c r="B41" s="2" t="n">
-        <v>3.388</v>
+        <v>3.394</v>
       </c>
       <c r="C41" t="n">
-        <v>-5.3</v>
+        <v>-3.4</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>2021-12-31</t>
+          <t>2022-01-31</t>
         </is>
       </c>
       <c r="B42" s="2" t="n">
-        <v>3.379</v>
+        <v>3.388</v>
       </c>
       <c r="C42" t="n">
-        <v>-5.2</v>
+        <v>-5.3</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2021-11-30</t>
+          <t>2021-12-31</t>
         </is>
       </c>
       <c r="B43" s="2" t="n">
-        <v>3.506</v>
+        <v>3.379</v>
       </c>
       <c r="C43" t="n">
-        <v>0.1</v>
+        <v>-5.2</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2021-10-31</t>
+          <t>2021-11-30</t>
         </is>
       </c>
       <c r="B44" s="2" t="n">
-        <v>3.424</v>
+        <v>3.506</v>
       </c>
       <c r="C44" t="n">
-        <v>-3.9</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>2021-09-30</t>
+          <t>2021-10-31</t>
         </is>
       </c>
       <c r="B45" s="2" t="n">
-        <v>3.387</v>
+        <v>3.424</v>
       </c>
       <c r="C45" t="n">
-        <v>-4.3</v>
+        <v>-3.9</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>2021-08-31</t>
+          <t>2021-09-30</t>
         </is>
       </c>
       <c r="B46" s="2" t="n">
-        <v>3.335</v>
+        <v>3.387</v>
+      </c>
+      <c r="C46" t="n">
+        <v>-4.3</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>2021-07-31</t>
+          <t>2021-08-31</t>
         </is>
       </c>
       <c r="B47" s="2" t="n">
-        <v>3.345</v>
+        <v>3.335</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>2021-06-30</t>
+          <t>2021-07-31</t>
         </is>
       </c>
       <c r="B48" s="2" t="n">
-        <v>3.387</v>
+        <v>3.345</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>2021-05-31</t>
+          <t>2021-06-30</t>
         </is>
       </c>
       <c r="B49" s="2" t="n">
-        <v>3.399</v>
+        <v>3.387</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>2021-04-30</t>
+          <t>2021-05-31</t>
         </is>
       </c>
       <c r="B50" s="2" t="n">
-        <v>3.449</v>
+        <v>3.399</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>2021-03-31</t>
+          <t>2021-04-30</t>
         </is>
       </c>
       <c r="B51" s="2" t="n">
-        <v>3.481</v>
+        <v>3.449</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>2021-02-28</t>
+          <t>2021-03-31</t>
         </is>
       </c>
       <c r="B52" s="2" t="n">
-        <v>3.515</v>
+        <v>3.481</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>2021-01-31</t>
+          <t>2021-02-28</t>
         </is>
       </c>
       <c r="B53" s="2" t="n">
-        <v>3.578</v>
+        <v>3.515</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>2020-12-31</t>
+          <t>2021-01-31</t>
         </is>
       </c>
       <c r="B54" s="2" t="n">
-        <v>3.563</v>
+        <v>3.578</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>2020-11-30</t>
+          <t>2020-12-31</t>
         </is>
       </c>
       <c r="B55" s="2" t="n">
-        <v>3.502</v>
+        <v>3.563</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>2020-10-31</t>
+          <t>2020-11-30</t>
         </is>
       </c>
       <c r="B56" s="2" t="n">
-        <v>3.564</v>
+        <v>3.502</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
+          <t>2020-10-31</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>3.564</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
           <t>2020-09-30</t>
         </is>
       </c>
-      <c r="B57" t="n">
+      <c r="B58" t="n">
         <v>3.54</v>
       </c>
     </row>

--- a/data/lending-hours.xlsx
+++ b/data/lending-hours.xlsx
@@ -455,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C58"/>
+  <dimension ref="A1:C59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,705 +486,718 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-05-01</t>
+          <t>2025-06-01</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.368</v>
+        <v>3.351</v>
       </c>
       <c r="C2" t="n">
-        <v>-6.8</v>
+        <v>-7.3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-05-01</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.409</v>
+        <v>3.368</v>
       </c>
       <c r="C3" t="n">
-        <v>-5.1</v>
+        <v>-6.8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-03-01</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.393</v>
+        <v>3.409</v>
       </c>
       <c r="C4" t="n">
-        <v>-6.3</v>
+        <v>-5.1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-02-01</t>
+          <t>2025-03-01</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.359</v>
+        <v>3.393</v>
       </c>
       <c r="C5" t="n">
-        <v>-4.8</v>
+        <v>-6.3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>2025-02-01</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.411</v>
+        <v>3.359</v>
       </c>
       <c r="C6" t="n">
-        <v>-3.5</v>
+        <v>-4.8</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2024-12-01</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="B7" s="2" t="n">
-        <v>3.37</v>
+        <v>3.411</v>
       </c>
       <c r="C7" t="n">
-        <v>-3.8</v>
+        <v>-3.5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2024-11-01</t>
+          <t>2024-12-01</t>
         </is>
       </c>
       <c r="B8" s="2" t="n">
-        <v>3.489</v>
+        <v>3.37</v>
       </c>
       <c r="C8" t="n">
-        <v>1.1</v>
+        <v>-3.8</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2024-10-31</t>
+          <t>2024-11-01</t>
         </is>
       </c>
       <c r="B9" s="2" t="n">
-        <v>3.462</v>
+        <v>3.489</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-10-31</t>
         </is>
       </c>
       <c r="B10" s="2" t="n">
-        <v>3.485</v>
+        <v>3.462</v>
       </c>
       <c r="C10" t="n">
-        <v>1.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2024-08-31</t>
+          <t>2024-09-30</t>
         </is>
       </c>
       <c r="B11" s="2" t="n">
-        <v>3.586</v>
+        <v>3.485</v>
       </c>
       <c r="C11" t="n">
-        <v>4.5</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2024-07-31</t>
+          <t>2024-08-31</t>
         </is>
       </c>
       <c r="B12" s="2" t="n">
-        <v>3.565</v>
+        <v>3.586</v>
       </c>
       <c r="C12" t="n">
-        <v>2.4</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2024-06-30</t>
+          <t>2024-07-31</t>
         </is>
       </c>
       <c r="B13" s="2" t="n">
-        <v>3.613</v>
+        <v>3.565</v>
       </c>
       <c r="C13" t="n">
-        <v>4.7</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2024-05-31</t>
+          <t>2024-06-30</t>
         </is>
       </c>
       <c r="B14" s="2" t="n">
         <v>3.613</v>
       </c>
       <c r="C14" t="n">
-        <v>5.3</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2024-04-30</t>
+          <t>2024-05-31</t>
         </is>
       </c>
       <c r="B15" s="2" t="n">
-        <v>3.593</v>
+        <v>3.613</v>
       </c>
       <c r="C15" t="n">
-        <v>5.8</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2024-03-31</t>
+          <t>2024-04-30</t>
         </is>
       </c>
       <c r="B16" s="2" t="n">
-        <v>3.621</v>
+        <v>3.593</v>
       </c>
       <c r="C16" t="n">
-        <v>7</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2024-02-29</t>
+          <t>2024-03-31</t>
         </is>
       </c>
       <c r="B17" s="2" t="n">
-        <v>3.528</v>
+        <v>3.621</v>
       </c>
       <c r="C17" t="n">
-        <v>4.6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2024-01-31</t>
+          <t>2024-02-29</t>
         </is>
       </c>
       <c r="B18" s="2" t="n">
-        <v>3.536</v>
+        <v>3.528</v>
       </c>
       <c r="C18" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2023-12-31</t>
+          <t>2024-01-31</t>
         </is>
       </c>
       <c r="B19" s="2" t="n">
-        <v>3.504</v>
+        <v>3.536</v>
       </c>
       <c r="C19" t="n">
-        <v>2.7</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2023-11-30</t>
+          <t>2023-12-31</t>
         </is>
       </c>
       <c r="B20" s="2" t="n">
-        <v>3.451</v>
+        <v>3.504</v>
       </c>
       <c r="C20" t="n">
-        <v>0.3</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2023-10-31</t>
+          <t>2023-11-30</t>
         </is>
       </c>
       <c r="B21" s="2" t="n">
-        <v>3.461</v>
+        <v>3.451</v>
       </c>
       <c r="C21" t="n">
-        <v>2.3</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2023-09-30</t>
+          <t>2023-10-31</t>
         </is>
       </c>
       <c r="B22" s="2" t="n">
-        <v>3.446</v>
+        <v>3.461</v>
       </c>
       <c r="C22" t="n">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-30</t>
         </is>
       </c>
       <c r="B23" s="2" t="n">
-        <v>3.432</v>
+        <v>3.446</v>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2023-07-31</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="B24" s="2" t="n">
-        <v>3.482</v>
+        <v>3.432</v>
       </c>
       <c r="C24" t="n">
-        <v>1.6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2023-06-30</t>
+          <t>2023-07-31</t>
         </is>
       </c>
       <c r="B25" s="2" t="n">
-        <v>3.452</v>
+        <v>3.482</v>
       </c>
       <c r="C25" t="n">
-        <v>4.2</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2023-05-31</t>
+          <t>2023-06-30</t>
         </is>
       </c>
       <c r="B26" s="2" t="n">
-        <v>3.432</v>
+        <v>3.452</v>
       </c>
       <c r="C26" t="n">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2023-04-30</t>
+          <t>2023-05-31</t>
         </is>
       </c>
       <c r="B27" s="2" t="n">
-        <v>3.395</v>
+        <v>3.432</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.8</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>2023-04-30</t>
         </is>
       </c>
       <c r="B28" s="2" t="n">
-        <v>3.384</v>
+        <v>3.395</v>
       </c>
       <c r="C28" t="n">
-        <v>0.4</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2023-02-28</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="B29" s="2" t="n">
-        <v>3.374</v>
+        <v>3.384</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2023-01-31</t>
+          <t>2023-02-28</t>
         </is>
       </c>
       <c r="B30" s="2" t="n">
-        <v>3.376</v>
+        <v>3.374</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.4</v>
+        <v>-0.6</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2022-12-31</t>
+          <t>2023-01-31</t>
         </is>
       </c>
       <c r="B31" s="2" t="n">
-        <v>3.413</v>
+        <v>3.376</v>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2022-11-30</t>
+          <t>2022-12-31</t>
         </is>
       </c>
       <c r="B32" s="2" t="n">
-        <v>3.442</v>
+        <v>3.413</v>
       </c>
       <c r="C32" t="n">
-        <v>-1.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2022-10-31</t>
+          <t>2022-11-30</t>
         </is>
       </c>
       <c r="B33" s="2" t="n">
-        <v>3.384</v>
+        <v>3.442</v>
       </c>
       <c r="C33" t="n">
-        <v>-1.2</v>
+        <v>-1.8</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2022-09-30</t>
+          <t>2022-10-31</t>
         </is>
       </c>
       <c r="B34" s="2" t="n">
-        <v>3.396</v>
+        <v>3.384</v>
       </c>
       <c r="C34" t="n">
-        <v>0.3</v>
+        <v>-1.2</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2022-08-31</t>
+          <t>2022-09-30</t>
         </is>
       </c>
       <c r="B35" s="2" t="n">
-        <v>3.365</v>
+        <v>3.396</v>
       </c>
       <c r="C35" t="n">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2022-07-31</t>
+          <t>2022-08-31</t>
         </is>
       </c>
       <c r="B36" s="3" t="n">
-        <v>3.427</v>
+        <v>3.365</v>
       </c>
       <c r="C36" t="n">
-        <v>2.5</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2022-06-30</t>
+          <t>2022-07-31</t>
         </is>
       </c>
       <c r="B37" s="2" t="n">
-        <v>3.312</v>
+        <v>3.427</v>
       </c>
       <c r="C37" t="n">
-        <v>-2.2</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2022-05-31</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="B38" s="2" t="n">
-        <v>3.317</v>
+        <v>3.312</v>
       </c>
       <c r="C38" t="n">
-        <v>-2.4</v>
+        <v>-2.2</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2022-04-30</t>
+          <t>2022-05-31</t>
         </is>
       </c>
       <c r="B39" s="2" t="n">
-        <v>3.421</v>
+        <v>3.317</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.8</v>
+        <v>-2.4</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2022-03-31</t>
+          <t>2022-04-30</t>
         </is>
       </c>
       <c r="B40" s="2" t="n">
-        <v>3.371</v>
+        <v>3.421</v>
       </c>
       <c r="C40" t="n">
-        <v>-3.2</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>2022-02-28</t>
+          <t>2022-03-31</t>
         </is>
       </c>
       <c r="B41" s="2" t="n">
-        <v>3.394</v>
+        <v>3.371</v>
       </c>
       <c r="C41" t="n">
-        <v>-3.4</v>
+        <v>-3.2</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>2022-01-31</t>
+          <t>2022-02-28</t>
         </is>
       </c>
       <c r="B42" s="2" t="n">
-        <v>3.388</v>
+        <v>3.394</v>
       </c>
       <c r="C42" t="n">
-        <v>-5.3</v>
+        <v>-3.4</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2021-12-31</t>
+          <t>2022-01-31</t>
         </is>
       </c>
       <c r="B43" s="2" t="n">
-        <v>3.379</v>
+        <v>3.388</v>
       </c>
       <c r="C43" t="n">
-        <v>-5.2</v>
+        <v>-5.3</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2021-11-30</t>
+          <t>2021-12-31</t>
         </is>
       </c>
       <c r="B44" s="2" t="n">
-        <v>3.506</v>
+        <v>3.379</v>
       </c>
       <c r="C44" t="n">
-        <v>0.1</v>
+        <v>-5.2</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>2021-10-31</t>
+          <t>2021-11-30</t>
         </is>
       </c>
       <c r="B45" s="2" t="n">
-        <v>3.424</v>
+        <v>3.506</v>
       </c>
       <c r="C45" t="n">
-        <v>-3.9</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>2021-09-30</t>
+          <t>2021-10-31</t>
         </is>
       </c>
       <c r="B46" s="2" t="n">
-        <v>3.387</v>
+        <v>3.424</v>
       </c>
       <c r="C46" t="n">
-        <v>-4.3</v>
+        <v>-3.9</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>2021-08-31</t>
+          <t>2021-09-30</t>
         </is>
       </c>
       <c r="B47" s="2" t="n">
-        <v>3.335</v>
+        <v>3.387</v>
+      </c>
+      <c r="C47" t="n">
+        <v>-4.3</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>2021-07-31</t>
+          <t>2021-08-31</t>
         </is>
       </c>
       <c r="B48" s="2" t="n">
-        <v>3.345</v>
+        <v>3.335</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>2021-06-30</t>
+          <t>2021-07-31</t>
         </is>
       </c>
       <c r="B49" s="2" t="n">
-        <v>3.387</v>
+        <v>3.345</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>2021-05-31</t>
+          <t>2021-06-30</t>
         </is>
       </c>
       <c r="B50" s="2" t="n">
-        <v>3.399</v>
+        <v>3.387</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>2021-04-30</t>
+          <t>2021-05-31</t>
         </is>
       </c>
       <c r="B51" s="2" t="n">
-        <v>3.449</v>
+        <v>3.399</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>2021-03-31</t>
+          <t>2021-04-30</t>
         </is>
       </c>
       <c r="B52" s="2" t="n">
-        <v>3.481</v>
+        <v>3.449</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>2021-02-28</t>
+          <t>2021-03-31</t>
         </is>
       </c>
       <c r="B53" s="2" t="n">
-        <v>3.515</v>
+        <v>3.481</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>2021-01-31</t>
+          <t>2021-02-28</t>
         </is>
       </c>
       <c r="B54" s="2" t="n">
-        <v>3.578</v>
+        <v>3.515</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>2020-12-31</t>
+          <t>2021-01-31</t>
         </is>
       </c>
       <c r="B55" s="2" t="n">
-        <v>3.563</v>
+        <v>3.578</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>2020-11-30</t>
+          <t>2020-12-31</t>
         </is>
       </c>
       <c r="B56" s="2" t="n">
-        <v>3.502</v>
+        <v>3.563</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2020-10-31</t>
+          <t>2020-11-30</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>3.564</v>
+        <v>3.502</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
+          <t>2020-10-31</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>3.564</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
           <t>2020-09-30</t>
         </is>
       </c>
-      <c r="B58" t="n">
+      <c r="B59" t="n">
         <v>3.54</v>
       </c>
     </row>

--- a/data/lending-hours.xlsx
+++ b/data/lending-hours.xlsx
@@ -455,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C59"/>
+  <dimension ref="A1:C60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,718 +486,731 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-06-01</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.351</v>
+        <v>3.328</v>
       </c>
       <c r="C2" t="n">
-        <v>-7.3</v>
+        <v>-6.6</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-05-01</t>
+          <t>2025-06-01</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.368</v>
+        <v>3.351</v>
       </c>
       <c r="C3" t="n">
-        <v>-6.8</v>
+        <v>-7.3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-05-01</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.409</v>
+        <v>3.368</v>
       </c>
       <c r="C4" t="n">
-        <v>-5.1</v>
+        <v>-6.8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-03-01</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.393</v>
+        <v>3.409</v>
       </c>
       <c r="C5" t="n">
-        <v>-6.3</v>
+        <v>-5.1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-02-01</t>
+          <t>2025-03-01</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.359</v>
+        <v>3.393</v>
       </c>
       <c r="C6" t="n">
-        <v>-4.8</v>
+        <v>-6.3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>2025-02-01</t>
         </is>
       </c>
       <c r="B7" s="2" t="n">
-        <v>3.411</v>
+        <v>3.359</v>
       </c>
       <c r="C7" t="n">
-        <v>-3.5</v>
+        <v>-4.8</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2024-12-01</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="B8" s="2" t="n">
-        <v>3.37</v>
+        <v>3.411</v>
       </c>
       <c r="C8" t="n">
-        <v>-3.8</v>
+        <v>-3.5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2024-11-01</t>
+          <t>2024-12-01</t>
         </is>
       </c>
       <c r="B9" s="2" t="n">
-        <v>3.489</v>
+        <v>3.37</v>
       </c>
       <c r="C9" t="n">
-        <v>1.1</v>
+        <v>-3.8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2024-10-31</t>
+          <t>2024-11-01</t>
         </is>
       </c>
       <c r="B10" s="2" t="n">
-        <v>3.462</v>
+        <v>3.489</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-10-31</t>
         </is>
       </c>
       <c r="B11" s="2" t="n">
-        <v>3.485</v>
+        <v>3.462</v>
       </c>
       <c r="C11" t="n">
-        <v>1.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2024-08-31</t>
+          <t>2024-09-30</t>
         </is>
       </c>
       <c r="B12" s="2" t="n">
-        <v>3.586</v>
+        <v>3.485</v>
       </c>
       <c r="C12" t="n">
-        <v>4.5</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2024-07-31</t>
+          <t>2024-08-31</t>
         </is>
       </c>
       <c r="B13" s="2" t="n">
-        <v>3.565</v>
+        <v>3.586</v>
       </c>
       <c r="C13" t="n">
-        <v>2.4</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2024-06-30</t>
+          <t>2024-07-31</t>
         </is>
       </c>
       <c r="B14" s="2" t="n">
-        <v>3.613</v>
+        <v>3.565</v>
       </c>
       <c r="C14" t="n">
-        <v>4.7</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2024-05-31</t>
+          <t>2024-06-30</t>
         </is>
       </c>
       <c r="B15" s="2" t="n">
         <v>3.613</v>
       </c>
       <c r="C15" t="n">
-        <v>5.3</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2024-04-30</t>
+          <t>2024-05-31</t>
         </is>
       </c>
       <c r="B16" s="2" t="n">
-        <v>3.593</v>
+        <v>3.613</v>
       </c>
       <c r="C16" t="n">
-        <v>5.8</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2024-03-31</t>
+          <t>2024-04-30</t>
         </is>
       </c>
       <c r="B17" s="2" t="n">
-        <v>3.621</v>
+        <v>3.593</v>
       </c>
       <c r="C17" t="n">
-        <v>7</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2024-02-29</t>
+          <t>2024-03-31</t>
         </is>
       </c>
       <c r="B18" s="2" t="n">
-        <v>3.528</v>
+        <v>3.621</v>
       </c>
       <c r="C18" t="n">
-        <v>4.6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2024-01-31</t>
+          <t>2024-02-29</t>
         </is>
       </c>
       <c r="B19" s="2" t="n">
-        <v>3.536</v>
+        <v>3.528</v>
       </c>
       <c r="C19" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2023-12-31</t>
+          <t>2024-01-31</t>
         </is>
       </c>
       <c r="B20" s="2" t="n">
-        <v>3.504</v>
+        <v>3.536</v>
       </c>
       <c r="C20" t="n">
-        <v>2.7</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2023-11-30</t>
+          <t>2023-12-31</t>
         </is>
       </c>
       <c r="B21" s="2" t="n">
-        <v>3.451</v>
+        <v>3.504</v>
       </c>
       <c r="C21" t="n">
-        <v>0.3</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2023-10-31</t>
+          <t>2023-11-30</t>
         </is>
       </c>
       <c r="B22" s="2" t="n">
-        <v>3.461</v>
+        <v>3.451</v>
       </c>
       <c r="C22" t="n">
-        <v>2.3</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2023-09-30</t>
+          <t>2023-10-31</t>
         </is>
       </c>
       <c r="B23" s="2" t="n">
-        <v>3.446</v>
+        <v>3.461</v>
       </c>
       <c r="C23" t="n">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-30</t>
         </is>
       </c>
       <c r="B24" s="2" t="n">
-        <v>3.432</v>
+        <v>3.446</v>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2023-07-31</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="B25" s="2" t="n">
-        <v>3.482</v>
+        <v>3.432</v>
       </c>
       <c r="C25" t="n">
-        <v>1.6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2023-06-30</t>
+          <t>2023-07-31</t>
         </is>
       </c>
       <c r="B26" s="2" t="n">
-        <v>3.452</v>
+        <v>3.482</v>
       </c>
       <c r="C26" t="n">
-        <v>4.2</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2023-05-31</t>
+          <t>2023-06-30</t>
         </is>
       </c>
       <c r="B27" s="2" t="n">
-        <v>3.432</v>
+        <v>3.452</v>
       </c>
       <c r="C27" t="n">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2023-04-30</t>
+          <t>2023-05-31</t>
         </is>
       </c>
       <c r="B28" s="2" t="n">
-        <v>3.395</v>
+        <v>3.432</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.8</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>2023-04-30</t>
         </is>
       </c>
       <c r="B29" s="2" t="n">
-        <v>3.384</v>
+        <v>3.395</v>
       </c>
       <c r="C29" t="n">
-        <v>0.4</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2023-02-28</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="B30" s="2" t="n">
-        <v>3.374</v>
+        <v>3.384</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2023-01-31</t>
+          <t>2023-02-28</t>
         </is>
       </c>
       <c r="B31" s="2" t="n">
-        <v>3.376</v>
+        <v>3.374</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.4</v>
+        <v>-0.6</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2022-12-31</t>
+          <t>2023-01-31</t>
         </is>
       </c>
       <c r="B32" s="2" t="n">
-        <v>3.413</v>
+        <v>3.376</v>
       </c>
       <c r="C32" t="n">
-        <v>1</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2022-11-30</t>
+          <t>2022-12-31</t>
         </is>
       </c>
       <c r="B33" s="2" t="n">
-        <v>3.442</v>
+        <v>3.413</v>
       </c>
       <c r="C33" t="n">
-        <v>-1.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2022-10-31</t>
+          <t>2022-11-30</t>
         </is>
       </c>
       <c r="B34" s="2" t="n">
-        <v>3.384</v>
+        <v>3.442</v>
       </c>
       <c r="C34" t="n">
-        <v>-1.2</v>
+        <v>-1.8</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2022-09-30</t>
+          <t>2022-10-31</t>
         </is>
       </c>
       <c r="B35" s="2" t="n">
-        <v>3.396</v>
+        <v>3.384</v>
       </c>
       <c r="C35" t="n">
-        <v>0.3</v>
+        <v>-1.2</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2022-08-31</t>
+          <t>2022-09-30</t>
         </is>
       </c>
       <c r="B36" s="3" t="n">
-        <v>3.365</v>
+        <v>3.396</v>
       </c>
       <c r="C36" t="n">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2022-07-31</t>
+          <t>2022-08-31</t>
         </is>
       </c>
       <c r="B37" s="2" t="n">
-        <v>3.427</v>
+        <v>3.365</v>
       </c>
       <c r="C37" t="n">
-        <v>2.5</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2022-06-30</t>
+          <t>2022-07-31</t>
         </is>
       </c>
       <c r="B38" s="2" t="n">
-        <v>3.312</v>
+        <v>3.427</v>
       </c>
       <c r="C38" t="n">
-        <v>-2.2</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2022-05-31</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="B39" s="2" t="n">
-        <v>3.317</v>
+        <v>3.312</v>
       </c>
       <c r="C39" t="n">
-        <v>-2.4</v>
+        <v>-2.2</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2022-04-30</t>
+          <t>2022-05-31</t>
         </is>
       </c>
       <c r="B40" s="2" t="n">
-        <v>3.421</v>
+        <v>3.317</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.8</v>
+        <v>-2.4</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>2022-03-31</t>
+          <t>2022-04-30</t>
         </is>
       </c>
       <c r="B41" s="2" t="n">
-        <v>3.371</v>
+        <v>3.421</v>
       </c>
       <c r="C41" t="n">
-        <v>-3.2</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>2022-02-28</t>
+          <t>2022-03-31</t>
         </is>
       </c>
       <c r="B42" s="2" t="n">
-        <v>3.394</v>
+        <v>3.371</v>
       </c>
       <c r="C42" t="n">
-        <v>-3.4</v>
+        <v>-3.2</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2022-01-31</t>
+          <t>2022-02-28</t>
         </is>
       </c>
       <c r="B43" s="2" t="n">
-        <v>3.388</v>
+        <v>3.394</v>
       </c>
       <c r="C43" t="n">
-        <v>-5.3</v>
+        <v>-3.4</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2021-12-31</t>
+          <t>2022-01-31</t>
         </is>
       </c>
       <c r="B44" s="2" t="n">
-        <v>3.379</v>
+        <v>3.388</v>
       </c>
       <c r="C44" t="n">
-        <v>-5.2</v>
+        <v>-5.3</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>2021-11-30</t>
+          <t>2021-12-31</t>
         </is>
       </c>
       <c r="B45" s="2" t="n">
-        <v>3.506</v>
+        <v>3.379</v>
       </c>
       <c r="C45" t="n">
-        <v>0.1</v>
+        <v>-5.2</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>2021-10-31</t>
+          <t>2021-11-30</t>
         </is>
       </c>
       <c r="B46" s="2" t="n">
-        <v>3.424</v>
+        <v>3.506</v>
       </c>
       <c r="C46" t="n">
-        <v>-3.9</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>2021-09-30</t>
+          <t>2021-10-31</t>
         </is>
       </c>
       <c r="B47" s="2" t="n">
-        <v>3.387</v>
+        <v>3.424</v>
       </c>
       <c r="C47" t="n">
-        <v>-4.3</v>
+        <v>-3.9</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>2021-08-31</t>
+          <t>2021-09-30</t>
         </is>
       </c>
       <c r="B48" s="2" t="n">
-        <v>3.335</v>
+        <v>3.387</v>
+      </c>
+      <c r="C48" t="n">
+        <v>-4.3</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>2021-07-31</t>
+          <t>2021-08-31</t>
         </is>
       </c>
       <c r="B49" s="2" t="n">
-        <v>3.345</v>
+        <v>3.335</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>2021-06-30</t>
+          <t>2021-07-31</t>
         </is>
       </c>
       <c r="B50" s="2" t="n">
-        <v>3.387</v>
+        <v>3.345</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>2021-05-31</t>
+          <t>2021-06-30</t>
         </is>
       </c>
       <c r="B51" s="2" t="n">
-        <v>3.399</v>
+        <v>3.387</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>2021-04-30</t>
+          <t>2021-05-31</t>
         </is>
       </c>
       <c r="B52" s="2" t="n">
-        <v>3.449</v>
+        <v>3.399</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>2021-03-31</t>
+          <t>2021-04-30</t>
         </is>
       </c>
       <c r="B53" s="2" t="n">
-        <v>3.481</v>
+        <v>3.449</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>2021-02-28</t>
+          <t>2021-03-31</t>
         </is>
       </c>
       <c r="B54" s="2" t="n">
-        <v>3.515</v>
+        <v>3.481</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>2021-01-31</t>
+          <t>2021-02-28</t>
         </is>
       </c>
       <c r="B55" s="2" t="n">
-        <v>3.578</v>
+        <v>3.515</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>2020-12-31</t>
+          <t>2021-01-31</t>
         </is>
       </c>
       <c r="B56" s="2" t="n">
-        <v>3.563</v>
+        <v>3.578</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2020-11-30</t>
+          <t>2020-12-31</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>3.502</v>
+        <v>3.563</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2020-10-31</t>
+          <t>2020-11-30</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>3.564</v>
+        <v>3.502</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
+          <t>2020-10-31</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>3.564</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
           <t>2020-09-30</t>
         </is>
       </c>
-      <c r="B59" t="n">
+      <c r="B60" t="n">
         <v>3.54</v>
       </c>
     </row>
